--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H2">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I2">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J2">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N2">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q2">
-        <v>0.07343583718244444</v>
+        <v>0.127594350606</v>
       </c>
       <c r="R2">
-        <v>0.6609225346419999</v>
+        <v>1.148349155454</v>
       </c>
       <c r="S2">
-        <v>0.001009304028692016</v>
+        <v>0.003081424645525412</v>
       </c>
       <c r="T2">
-        <v>0.001009304028692016</v>
+        <v>0.003081424645525412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H3">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I3">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J3">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.312473</v>
       </c>
       <c r="O3">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P3">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q3">
-        <v>0.005255309790888889</v>
+        <v>0.01357830589966666</v>
       </c>
       <c r="R3">
-        <v>0.047297788118</v>
+        <v>0.122204753097</v>
       </c>
       <c r="S3">
-        <v>7.222911248074906E-05</v>
+        <v>0.0003279183305922046</v>
       </c>
       <c r="T3">
-        <v>7.222911248074906E-05</v>
+        <v>0.0003279183305922046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H4">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I4">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J4">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N4">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q4">
-        <v>0.03560049273311111</v>
+        <v>0.04092781148466667</v>
       </c>
       <c r="R4">
-        <v>0.320404434598</v>
+        <v>0.368350303362</v>
       </c>
       <c r="S4">
-        <v>0.0004892940847080004</v>
+        <v>0.0009884134085662206</v>
       </c>
       <c r="T4">
-        <v>0.0004892940847080004</v>
+        <v>0.0009884134085662206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H5">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I5">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J5">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N5">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q5">
-        <v>0.07112158559000001</v>
+        <v>0.07600002118966664</v>
       </c>
       <c r="R5">
-        <v>0.64009427031</v>
+        <v>0.6840001907069999</v>
       </c>
       <c r="S5">
-        <v>0.0009774968954818638</v>
+        <v>0.001835413066817081</v>
       </c>
       <c r="T5">
-        <v>0.0009774968954818636</v>
+        <v>0.001835413066817082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H6">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I6">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J6">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N6">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q6">
-        <v>0.01237119363533333</v>
+        <v>0.03936958254566666</v>
       </c>
       <c r="R6">
-        <v>0.111340742718</v>
+        <v>0.354326242911</v>
       </c>
       <c r="S6">
-        <v>0.000170030002447578</v>
+        <v>0.000950781922272346</v>
       </c>
       <c r="T6">
-        <v>0.0001700300024475779</v>
+        <v>0.0009507819222723461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H7">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I7">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J7">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N7">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q7">
-        <v>0.047813946178</v>
+        <v>0.03659332864333333</v>
       </c>
       <c r="R7">
-        <v>0.430325515602</v>
+        <v>0.3293399577899999</v>
       </c>
       <c r="S7">
-        <v>0.000657156101934593</v>
+        <v>0.0008837349318981205</v>
       </c>
       <c r="T7">
-        <v>0.000657156101934593</v>
+        <v>0.0008837349318981206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N8">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q8">
-        <v>8.407969629614554</v>
+        <v>5.654149188302</v>
       </c>
       <c r="R8">
-        <v>75.67172666653099</v>
+        <v>50.887342694718</v>
       </c>
       <c r="S8">
-        <v>0.1155593501195735</v>
+        <v>0.1365486369542445</v>
       </c>
       <c r="T8">
-        <v>0.1155593501195735</v>
+        <v>0.1365486369542445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.312473</v>
       </c>
       <c r="O9">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P9">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q9">
         <v>0.6017019320721111</v>
@@ -1013,10 +1013,10 @@
         <v>5.415317388649</v>
       </c>
       <c r="S9">
-        <v>0.008269806778444853</v>
+        <v>0.01453120105977539</v>
       </c>
       <c r="T9">
-        <v>0.008269806778444855</v>
+        <v>0.0145312010597754</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N10">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q10">
-        <v>4.076046153809889</v>
+        <v>1.813653590350445</v>
       </c>
       <c r="R10">
-        <v>36.684415384289</v>
+        <v>16.322882313154</v>
       </c>
       <c r="S10">
-        <v>0.05602128282345507</v>
+        <v>0.04380003381974742</v>
       </c>
       <c r="T10">
-        <v>0.05602128282345509</v>
+        <v>0.04380003381974742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N11">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q11">
-        <v>8.143001490745</v>
+        <v>3.367825112002111</v>
       </c>
       <c r="R11">
-        <v>73.28701341670501</v>
+        <v>30.310426008019</v>
       </c>
       <c r="S11">
-        <v>0.1119176212267489</v>
+        <v>0.08133353281438059</v>
       </c>
       <c r="T11">
-        <v>0.1119176212267489</v>
+        <v>0.08133353281438062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N12">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q12">
-        <v>1.416428604327667</v>
+        <v>1.744603049720778</v>
       </c>
       <c r="R12">
-        <v>12.747857438949</v>
+        <v>15.701427447487</v>
       </c>
       <c r="S12">
-        <v>0.01946743104665368</v>
+        <v>0.04213245185649783</v>
       </c>
       <c r="T12">
-        <v>0.01946743104665368</v>
+        <v>0.04213245185649783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N13">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q13">
-        <v>5.474414437979</v>
+        <v>1.621577589158889</v>
       </c>
       <c r="R13">
-        <v>49.269729941811</v>
+        <v>14.59419830243</v>
       </c>
       <c r="S13">
-        <v>0.07524049236689077</v>
+        <v>0.03916136666031131</v>
       </c>
       <c r="T13">
-        <v>0.07524049236689077</v>
+        <v>0.03916136666031132</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J14">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N14">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q14">
-        <v>0.9163930458544444</v>
+        <v>0.61625139298</v>
       </c>
       <c r="R14">
-        <v>8.247537412689999</v>
+        <v>5.54626253682</v>
       </c>
       <c r="S14">
-        <v>0.01259492951307089</v>
+        <v>0.01488257294424948</v>
       </c>
       <c r="T14">
-        <v>0.01259492951307089</v>
+        <v>0.01488257294424948</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J15">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,10 +1373,10 @@
         <v>0.312473</v>
       </c>
       <c r="O15">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P15">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q15">
         <v>0.06558009727888889</v>
@@ -1385,10 +1385,10 @@
         <v>0.59022087551</v>
       </c>
       <c r="S15">
-        <v>0.0009013345380832715</v>
+        <v>0.001583770183016391</v>
       </c>
       <c r="T15">
-        <v>0.0009013345380832714</v>
+        <v>0.001583770183016392</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,40 +1417,40 @@
         <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J16">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N16">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q16">
-        <v>0.4442523599011111</v>
+        <v>0.1976719244955556</v>
       </c>
       <c r="R16">
-        <v>3.99827123911</v>
+        <v>1.77904732046</v>
       </c>
       <c r="S16">
-        <v>0.006105815822459473</v>
+        <v>0.004773809631665624</v>
       </c>
       <c r="T16">
-        <v>0.006105815822459473</v>
+        <v>0.004773809631665624</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>1.88887</v>
       </c>
       <c r="I17">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J17">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N17">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q17">
-        <v>0.8875139025500001</v>
+        <v>0.3670626379788888</v>
       </c>
       <c r="R17">
-        <v>7.987625122950001</v>
+        <v>3.30356374181</v>
       </c>
       <c r="S17">
-        <v>0.01219801382720577</v>
+        <v>0.00886462334537351</v>
       </c>
       <c r="T17">
-        <v>0.01219801382720576</v>
+        <v>0.008864623345373511</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>1.88887</v>
       </c>
       <c r="I18">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J18">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N18">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q18">
-        <v>0.1543779747233333</v>
+        <v>0.1901460367922222</v>
       </c>
       <c r="R18">
-        <v>1.38940177251</v>
+        <v>1.71131433113</v>
       </c>
       <c r="S18">
-        <v>0.002121774841927227</v>
+        <v>0.004592058200365048</v>
       </c>
       <c r="T18">
-        <v>0.002121774841927226</v>
+        <v>0.004592058200365048</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>1.88887</v>
       </c>
       <c r="I19">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J19">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N19">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q19">
-        <v>0.59666192221</v>
+        <v>0.1767373684111111</v>
       </c>
       <c r="R19">
-        <v>5.36995729989</v>
+        <v>1.5906363157</v>
       </c>
       <c r="S19">
-        <v>0.008200536753704232</v>
+        <v>0.004268236643869817</v>
       </c>
       <c r="T19">
-        <v>0.008200536753704231</v>
+        <v>0.004268236643869818</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H20">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I20">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J20">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N20">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O20">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P20">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q20">
-        <v>1.197101273926889</v>
+        <v>0.9041725055040001</v>
       </c>
       <c r="R20">
-        <v>10.773911465342</v>
+        <v>8.137552549536</v>
       </c>
       <c r="S20">
-        <v>0.01645299059538188</v>
+        <v>0.02183591537582912</v>
       </c>
       <c r="T20">
-        <v>0.01645299059538189</v>
+        <v>0.02183591537582912</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H21">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I21">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J21">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.312473</v>
       </c>
       <c r="O21">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P21">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q21">
-        <v>0.08566850037977777</v>
+        <v>0.09622001920533334</v>
       </c>
       <c r="R21">
-        <v>0.771016503418</v>
+        <v>0.865980172848</v>
       </c>
       <c r="S21">
-        <v>0.001177430065248629</v>
+        <v>0.002323729359208011</v>
       </c>
       <c r="T21">
-        <v>0.001177430065248629</v>
+        <v>0.002323729359208011</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H22">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I22">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J22">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N22">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O22">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P22">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q22">
-        <v>0.5803351175442223</v>
+        <v>0.2900269618453334</v>
       </c>
       <c r="R22">
-        <v>5.223016057898</v>
+        <v>2.610242656608</v>
       </c>
       <c r="S22">
-        <v>0.007976140731855971</v>
+        <v>0.00700419904057291</v>
       </c>
       <c r="T22">
-        <v>0.007976140731855971</v>
+        <v>0.00700419904057291</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H23">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I23">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J23">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N23">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O23">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P23">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q23">
-        <v>1.15937591209</v>
+        <v>0.5385593425653333</v>
       </c>
       <c r="R23">
-        <v>10.43438320881</v>
+        <v>4.847034083087999</v>
       </c>
       <c r="S23">
-        <v>0.01593449225524261</v>
+        <v>0.01300629709212802</v>
       </c>
       <c r="T23">
-        <v>0.0159344922552426</v>
+        <v>0.01300629709212802</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H24">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I24">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J24">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N24">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O24">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P24">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q24">
-        <v>0.2016668186686667</v>
+        <v>0.2789848760693334</v>
       </c>
       <c r="R24">
-        <v>1.815001368018</v>
+        <v>2.510863884624</v>
       </c>
       <c r="S24">
-        <v>0.002771713925315562</v>
+        <v>0.006737530844946918</v>
       </c>
       <c r="T24">
-        <v>0.002771713925315562</v>
+        <v>0.006737530844946918</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H25">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I25">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J25">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N25">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O25">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P25">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q25">
-        <v>0.779430562478</v>
+        <v>0.2593114937066667</v>
       </c>
       <c r="R25">
-        <v>7.014875062302</v>
+        <v>2.33380344336</v>
       </c>
       <c r="S25">
-        <v>0.01071251363064455</v>
+        <v>0.006262415410876005</v>
       </c>
       <c r="T25">
-        <v>0.01071251363064455</v>
+        <v>0.006262415410876005</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H26">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I26">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J26">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N26">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O26">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P26">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q26">
-        <v>10.64798729003255</v>
+        <v>8.305970736908</v>
       </c>
       <c r="R26">
-        <v>95.83188561029299</v>
+        <v>74.75373663217199</v>
       </c>
       <c r="S26">
-        <v>0.1463462102650398</v>
+        <v>0.2005905654299215</v>
       </c>
       <c r="T26">
-        <v>0.1463462102650398</v>
+        <v>0.2005905654299215</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H27">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I27">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J27">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.312473</v>
       </c>
       <c r="O27">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P27">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q27">
-        <v>0.7620049556941111</v>
+        <v>0.8839028603051111</v>
       </c>
       <c r="R27">
-        <v>6.858044601246999</v>
+        <v>7.955125742746</v>
       </c>
       <c r="S27">
-        <v>0.01047301564431824</v>
+        <v>0.02134640009576173</v>
       </c>
       <c r="T27">
-        <v>0.01047301564431824</v>
+        <v>0.02134640009576174</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H28">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I28">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J28">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N28">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O28">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P28">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q28">
-        <v>5.16197007735189</v>
+        <v>2.664265329168445</v>
       </c>
       <c r="R28">
-        <v>46.457730696167</v>
+        <v>23.978387962516</v>
       </c>
       <c r="S28">
-        <v>0.07094624906522345</v>
+        <v>0.06434244783195335</v>
       </c>
       <c r="T28">
-        <v>0.07094624906522344</v>
+        <v>0.06434244783195335</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H29">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I29">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J29">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N29">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O29">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P29">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q29">
-        <v>10.312427398735</v>
+        <v>4.94735032552511</v>
       </c>
       <c r="R29">
-        <v>92.811846588615</v>
+        <v>44.526152929726</v>
       </c>
       <c r="S29">
-        <v>0.1417342665172937</v>
+        <v>0.1194793276560974</v>
       </c>
       <c r="T29">
-        <v>0.1417342665172937</v>
+        <v>0.1194793276560974</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H30">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I30">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J30">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N30">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O30">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P30">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q30">
-        <v>1.793787851349667</v>
+        <v>2.562829772599778</v>
       </c>
       <c r="R30">
-        <v>16.144090662147</v>
+        <v>23.065467953398</v>
       </c>
       <c r="S30">
-        <v>0.02465386621096255</v>
+        <v>0.06189276238382208</v>
       </c>
       <c r="T30">
-        <v>0.02465386621096255</v>
+        <v>0.06189276238382208</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H31">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I31">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J31">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N31">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O31">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P31">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q31">
-        <v>6.932886050237</v>
+        <v>2.382104814468889</v>
       </c>
       <c r="R31">
-        <v>62.395974452133</v>
+        <v>21.43894333022</v>
       </c>
       <c r="S31">
-        <v>0.09528576359227073</v>
+        <v>0.05752822478947594</v>
       </c>
       <c r="T31">
-        <v>0.0952857635922707</v>
+        <v>0.05752822478947595</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H32">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N32">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O32">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P32">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q32">
-        <v>0.5125905464026667</v>
+        <v>0.20734420462</v>
       </c>
       <c r="R32">
-        <v>4.613314917624</v>
+        <v>1.86609784158</v>
       </c>
       <c r="S32">
-        <v>0.007045057609520019</v>
+        <v>0.00500739679451676</v>
       </c>
       <c r="T32">
-        <v>0.007045057609520019</v>
+        <v>0.00500739679451676</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H33">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.312473</v>
       </c>
       <c r="O33">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P33">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q33">
-        <v>0.03668266367733334</v>
+        <v>0.02206510729888888</v>
       </c>
       <c r="R33">
-        <v>0.3301439730960001</v>
+        <v>0.19858596569</v>
       </c>
       <c r="S33">
-        <v>0.0005041674699057938</v>
+        <v>0.0005328759863899617</v>
       </c>
       <c r="T33">
-        <v>0.0005041674699057938</v>
+        <v>0.0005328759863899618</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H34">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N34">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O34">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P34">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q34">
-        <v>0.2484955128506667</v>
+        <v>0.06650877941555555</v>
       </c>
       <c r="R34">
-        <v>2.236459615656</v>
+        <v>0.59857901474</v>
       </c>
       <c r="S34">
-        <v>0.003415328698561152</v>
+        <v>0.001606198010033752</v>
       </c>
       <c r="T34">
-        <v>0.003415328698561152</v>
+        <v>0.001606198010033752</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H35">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N35">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O35">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P35">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q35">
-        <v>0.4964368054800001</v>
+        <v>0.1235020505988888</v>
       </c>
       <c r="R35">
-        <v>4.467931249320001</v>
+        <v>1.11151845539</v>
       </c>
       <c r="S35">
-        <v>0.0068230401801934</v>
+        <v>0.00298259492431201</v>
       </c>
       <c r="T35">
-        <v>0.006823040180193399</v>
+        <v>0.00298259492431201</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H36">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2669,28 +2669,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N36">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O36">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P36">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q36">
-        <v>0.08635234714400002</v>
+        <v>0.06397661605222221</v>
       </c>
       <c r="R36">
-        <v>0.7771711242960001</v>
+        <v>0.57578954447</v>
       </c>
       <c r="S36">
-        <v>0.001186828872705848</v>
+        <v>0.001545045846499758</v>
       </c>
       <c r="T36">
-        <v>0.001186828872705848</v>
+        <v>0.001545045846499758</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H37">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N37">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O37">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P37">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q37">
-        <v>0.3337468154160001</v>
+        <v>0.05946512981111109</v>
       </c>
       <c r="R37">
-        <v>3.003721338744</v>
+        <v>0.5351861682999999</v>
       </c>
       <c r="S37">
-        <v>0.004587024786353595</v>
+        <v>0.001436092708486335</v>
       </c>
       <c r="T37">
-        <v>0.004587024786353595</v>
+        <v>0.001436092708486335</v>
       </c>
     </row>
   </sheetData>
